--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>COMPLETE</t>
+  </si>
+  <si>
+    <t>User Story #50 - View City Map</t>
   </si>
 </sst>
 </file>
@@ -482,24 +485,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$38:$W$38</c:f>
+              <c:f>Sheet1!$D$39:$W$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>37</c:v>
@@ -632,66 +635,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$37:$W$37</c:f>
+              <c:f>Sheet1!$D$38:$W$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>38.950000000000003</c:v>
+                  <c:v>42.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.900000000000006</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.850000000000009</c:v>
+                  <c:v>38.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.800000000000011</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.750000000000011</c:v>
+                  <c:v>33.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.70000000000001</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.650000000000009</c:v>
+                  <c:v>29.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.600000000000009</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.550000000000008</c:v>
+                  <c:v>24.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.500000000000007</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.450000000000006</c:v>
+                  <c:v>20.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.400000000000006</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.350000000000005</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.300000000000004</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.250000000000004</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.150000000000003</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1000000000000032</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0500000000000034</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -1128,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM136"/>
+  <dimension ref="A1:AM137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3244,67 +3247,67 @@
     </row>
     <row r="36" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D36" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F36" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H36" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I36" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K36" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L36" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M36" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P36" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R36" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S36" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T36" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U36" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V36" s="7">
         <v>0</v>
@@ -3316,89 +3319,74 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8">
-        <f>41 - 41/20</f>
-        <v>38.950000000000003</v>
-      </c>
-      <c r="E37" s="8">
-        <f>D37 - 41/20</f>
-        <v>36.900000000000006</v>
-      </c>
-      <c r="F37" s="8">
-        <f t="shared" ref="F37:V37" si="0">E37 - 41/20</f>
-        <v>34.850000000000009</v>
-      </c>
-      <c r="G37" s="8">
-        <f t="shared" si="0"/>
-        <v>32.800000000000011</v>
-      </c>
-      <c r="H37" s="8">
-        <f t="shared" si="0"/>
-        <v>30.750000000000011</v>
-      </c>
-      <c r="I37" s="8">
-        <f t="shared" si="0"/>
-        <v>28.70000000000001</v>
-      </c>
-      <c r="J37" s="8">
-        <f t="shared" si="0"/>
-        <v>26.650000000000009</v>
-      </c>
-      <c r="K37" s="8">
-        <f t="shared" si="0"/>
-        <v>24.600000000000009</v>
-      </c>
-      <c r="L37" s="8">
-        <f t="shared" si="0"/>
-        <v>22.550000000000008</v>
-      </c>
-      <c r="M37" s="8">
-        <f t="shared" si="0"/>
-        <v>20.500000000000007</v>
-      </c>
-      <c r="N37" s="8">
-        <f t="shared" si="0"/>
-        <v>18.450000000000006</v>
-      </c>
-      <c r="O37" s="8">
-        <f t="shared" si="0"/>
-        <v>16.400000000000006</v>
-      </c>
-      <c r="P37" s="8">
-        <f t="shared" si="0"/>
-        <v>14.350000000000005</v>
-      </c>
-      <c r="Q37" s="8">
-        <f t="shared" si="0"/>
-        <v>12.300000000000004</v>
-      </c>
-      <c r="R37" s="8">
-        <f t="shared" si="0"/>
-        <v>10.250000000000004</v>
-      </c>
-      <c r="S37" s="8">
-        <f t="shared" si="0"/>
-        <v>8.2000000000000028</v>
-      </c>
-      <c r="T37" s="8">
-        <f t="shared" si="0"/>
-        <v>6.150000000000003</v>
-      </c>
-      <c r="U37" s="8">
-        <f t="shared" si="0"/>
-        <v>4.1000000000000032</v>
-      </c>
-      <c r="V37" s="8">
-        <f t="shared" si="0"/>
-        <v>2.0500000000000034</v>
-      </c>
-      <c r="W37" s="8">
+    <row r="37" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2</v>
+      </c>
+      <c r="E37" s="7">
+        <v>2</v>
+      </c>
+      <c r="F37" s="7">
+        <v>2</v>
+      </c>
+      <c r="G37" s="7">
+        <v>2</v>
+      </c>
+      <c r="H37" s="7">
+        <v>2</v>
+      </c>
+      <c r="I37" s="7">
+        <v>2</v>
+      </c>
+      <c r="J37" s="7">
+        <v>2</v>
+      </c>
+      <c r="K37" s="7">
+        <v>2</v>
+      </c>
+      <c r="L37" s="7">
+        <v>2</v>
+      </c>
+      <c r="M37" s="7">
+        <v>2</v>
+      </c>
+      <c r="N37" s="7">
+        <v>2</v>
+      </c>
+      <c r="O37" s="7">
+        <v>2</v>
+      </c>
+      <c r="P37" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>2</v>
+      </c>
+      <c r="R37" s="7">
+        <v>2</v>
+      </c>
+      <c r="S37" s="7">
+        <v>2</v>
+      </c>
+      <c r="T37" s="7">
+        <v>2</v>
+      </c>
+      <c r="U37" s="7">
+        <v>2</v>
+      </c>
+      <c r="V37" s="7">
+        <v>0</v>
+      </c>
+      <c r="W37" s="7">
         <v>0</v>
       </c>
       <c r="X37" s="3"/>
@@ -3407,88 +3395,88 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8">
-        <f t="shared" ref="D38:W38" si="1">SUM(D19:D36)</f>
-        <v>41</v>
+        <f>45 - 45/20</f>
+        <v>42.75</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <f>D38 - 45/20</f>
+        <v>40.5</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <f t="shared" ref="F38:W38" si="0">E38 - 45/20</f>
+        <v>38.25</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>33.75</v>
       </c>
       <c r="I38" s="8">
-        <f t="shared" si="1"/>
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>31.5</v>
       </c>
       <c r="J38" s="8">
-        <f t="shared" si="1"/>
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>29.25</v>
       </c>
       <c r="K38" s="8">
-        <f t="shared" si="1"/>
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="L38" s="8">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>24.75</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>22.5</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>20.25</v>
       </c>
       <c r="O38" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>15.75</v>
       </c>
       <c r="Q38" s="8">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>13.5</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>11.25</v>
       </c>
       <c r="S38" s="8">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="T38" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>6.75</v>
       </c>
       <c r="U38" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>4.5</v>
       </c>
       <c r="V38" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.25</v>
       </c>
       <c r="W38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X38" s="3"/>
@@ -3496,29 +3484,91 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
+      <c r="A39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8">
+        <f>SUM(D19:D37)</f>
+        <v>45</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" ref="D39:W39" si="1">SUM(E19:E37)</f>
+        <v>45</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H39" s="8">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I39" s="8">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="J39" s="8">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="K39" s="8">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="L39" s="8">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="M39" s="8">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="N39" s="8">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="O39" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="P39" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q39" s="8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="R39" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="S39" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="T39" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U39" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V39" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
@@ -4949,6 +4999,7 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
@@ -5112,7 +5163,7 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="3"/>
@@ -5136,8 +5187,10 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="3"/>
@@ -5162,7 +5215,7 @@
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="3"/>
@@ -5187,7 +5240,7 @@
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="3"/>
@@ -5212,7 +5265,7 @@
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="3"/>
@@ -5237,7 +5290,7 @@
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="3"/>
@@ -5262,7 +5315,7 @@
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="3"/>
@@ -5287,7 +5340,7 @@
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="3"/>
@@ -5312,7 +5365,7 @@
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="3"/>
@@ -5337,7 +5390,7 @@
       <c r="V105" s="3"/>
       <c r="W105" s="3"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="3"/>
@@ -5362,7 +5415,7 @@
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
@@ -5387,7 +5440,7 @@
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="3"/>
@@ -5412,7 +5465,7 @@
       <c r="V108" s="3"/>
       <c r="W108" s="3"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="3"/>
@@ -5437,7 +5490,7 @@
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="3"/>
@@ -5462,7 +5515,7 @@
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="3"/>
@@ -5487,7 +5540,7 @@
       <c r="V111" s="3"/>
       <c r="W111" s="3"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="3"/>
@@ -5648,6 +5701,19 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
@@ -5865,6 +5931,18 @@
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
     </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="3"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
